--- a/data/Khulla Manch.xlsx
+++ b/data/Khulla Manch.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swopil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\View_Finders\Visualizer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A823B7D8-842C-4FA3-A9DD-A3AC5B6FE14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GenderWiseAge" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="745">
   <si>
     <t>ageGroup</t>
   </si>
@@ -2251,19 +2250,30 @@
   </si>
   <si>
     <t>2022-06-26</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2274,7 +2284,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2282,12 +2292,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2381,23 +2410,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2433,23 +2445,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2625,16 +2620,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2645,7 +2640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2656,7 +2651,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2667,7 +2662,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2678,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2689,7 +2684,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2700,7 +2695,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2717,14 +2712,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2740,8 +2737,14 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2757,8 +2760,14 @@
       <c r="E2">
         <v>18.739999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1">
+        <v>24.000248800000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>53.999482899999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2774,8 +2783,14 @@
       <c r="E3">
         <v>13.78</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1">
+        <v>-24.776108600000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>134.755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2791,8 +2806,14 @@
       <c r="E4">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1">
+        <v>24.4769288</v>
+      </c>
+      <c r="G4" s="1">
+        <v>90.293441299999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2808,8 +2829,14 @@
       <c r="E5">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <v>22.351114800000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>78.667742799999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2825,8 +2852,14 @@
       <c r="E6">
         <v>25.66</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <v>36.5748441</v>
+      </c>
+      <c r="G6" s="1">
+        <v>139.23941790000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2842,8 +2875,14 @@
       <c r="E7">
         <v>19.71</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <v>39.783730400000003</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-100.445882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2859,8 +2898,14 @@
       <c r="E8">
         <v>17.04</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="1">
+        <v>28.108392899999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>84.091713900000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2875,6 +2920,12 @@
       </c>
       <c r="E9">
         <v>11.82</v>
+      </c>
+      <c r="F9" s="1">
+        <v>39.783730400000003</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-100.445882</v>
       </c>
     </row>
   </sheetData>
@@ -2883,14 +2934,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C721"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2901,7 +2952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2912,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2923,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2934,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2945,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2956,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2967,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2978,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2989,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3000,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -3011,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -3022,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3033,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -3044,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -3055,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -3066,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -3077,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -3088,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -3099,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -3110,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -3121,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -3132,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3143,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -3154,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -3165,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -3176,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -3187,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -3198,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -3209,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -3220,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -3231,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -3242,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -3253,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -3264,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -3275,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -3286,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -3297,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -3308,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -3319,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -3330,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -3341,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3352,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -3363,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -3374,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -3385,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -3396,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -3407,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -3418,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -3429,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -3440,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -3451,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -3462,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -3473,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -3484,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -3495,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -3506,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -3517,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -3528,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>80</v>
       </c>
@@ -3539,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -3550,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -3561,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -3572,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -3583,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>85</v>
       </c>
@@ -3594,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -3605,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -3616,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>88</v>
       </c>
@@ -3627,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>89</v>
       </c>
@@ -3638,7 +3689,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>90</v>
       </c>
@@ -3649,7 +3700,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -3660,7 +3711,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -3671,7 +3722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>93</v>
       </c>
@@ -3682,7 +3733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -3693,7 +3744,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>95</v>
       </c>
@@ -3704,7 +3755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -3715,7 +3766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -3726,7 +3777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -3737,7 +3788,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -3748,7 +3799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>100</v>
       </c>
@@ -3759,7 +3810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>101</v>
       </c>
@@ -3770,7 +3821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>102</v>
       </c>
@@ -3781,7 +3832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -3792,7 +3843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -3803,7 +3854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>105</v>
       </c>
@@ -3814,7 +3865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -3825,7 +3876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -3836,7 +3887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>108</v>
       </c>
@@ -3847,7 +3898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>109</v>
       </c>
@@ -3858,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>110</v>
       </c>
@@ -3869,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>111</v>
       </c>
@@ -3880,7 +3931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>112</v>
       </c>
@@ -3891,7 +3942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -3902,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>114</v>
       </c>
@@ -3913,7 +3964,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>115</v>
       </c>
@@ -3924,7 +3975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -3935,7 +3986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>117</v>
       </c>
@@ -3946,7 +3997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>118</v>
       </c>
@@ -3957,7 +4008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -3968,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>120</v>
       </c>
@@ -3979,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>121</v>
       </c>
@@ -3990,7 +4041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>122</v>
       </c>
@@ -4001,7 +4052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -4012,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>124</v>
       </c>
@@ -4023,7 +4074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>125</v>
       </c>
@@ -4034,7 +4085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -4045,7 +4096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>127</v>
       </c>
@@ -4056,7 +4107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>128</v>
       </c>
@@ -4067,7 +4118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>129</v>
       </c>
@@ -4078,7 +4129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>130</v>
       </c>
@@ -4089,7 +4140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>131</v>
       </c>
@@ -4100,7 +4151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>132</v>
       </c>
@@ -4111,7 +4162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>133</v>
       </c>
@@ -4122,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>134</v>
       </c>
@@ -4133,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>135</v>
       </c>
@@ -4144,7 +4195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>136</v>
       </c>
@@ -4155,7 +4206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>137</v>
       </c>
@@ -4166,7 +4217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>138</v>
       </c>
@@ -4177,7 +4228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>139</v>
       </c>
@@ -4188,7 +4239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>140</v>
       </c>
@@ -4199,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>141</v>
       </c>
@@ -4210,7 +4261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>142</v>
       </c>
@@ -4221,7 +4272,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>143</v>
       </c>
@@ -4232,7 +4283,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>144</v>
       </c>
@@ -4243,7 +4294,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>145</v>
       </c>
@@ -4254,7 +4305,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>146</v>
       </c>
@@ -4265,7 +4316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>147</v>
       </c>
@@ -4276,7 +4327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>148</v>
       </c>
@@ -4287,7 +4338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>149</v>
       </c>
@@ -4298,7 +4349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>150</v>
       </c>
@@ -4309,7 +4360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>151</v>
       </c>
@@ -4320,7 +4371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>152</v>
       </c>
@@ -4331,7 +4382,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>153</v>
       </c>
@@ -4342,7 +4393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>154</v>
       </c>
@@ -4353,7 +4404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>155</v>
       </c>
@@ -4364,7 +4415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>156</v>
       </c>
@@ -4375,7 +4426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>157</v>
       </c>
@@ -4386,7 +4437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>158</v>
       </c>
@@ -4397,7 +4448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>159</v>
       </c>
@@ -4408,7 +4459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>160</v>
       </c>
@@ -4419,7 +4470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>161</v>
       </c>
@@ -4430,7 +4481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>162</v>
       </c>
@@ -4441,7 +4492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>163</v>
       </c>
@@ -4452,7 +4503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>164</v>
       </c>
@@ -4463,7 +4514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>165</v>
       </c>
@@ -4474,7 +4525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>166</v>
       </c>
@@ -4485,7 +4536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>167</v>
       </c>
@@ -4496,7 +4547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>168</v>
       </c>
@@ -4507,7 +4558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>169</v>
       </c>
@@ -4518,7 +4569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>170</v>
       </c>
@@ -4529,7 +4580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>171</v>
       </c>
@@ -4540,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>172</v>
       </c>
@@ -4551,7 +4602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>173</v>
       </c>
@@ -4562,7 +4613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>174</v>
       </c>
@@ -4573,7 +4624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>175</v>
       </c>
@@ -4584,7 +4635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>176</v>
       </c>
@@ -4595,7 +4646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>177</v>
       </c>
@@ -4606,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>178</v>
       </c>
@@ -4617,7 +4668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>179</v>
       </c>
@@ -4628,7 +4679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>180</v>
       </c>
@@ -4639,7 +4690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>181</v>
       </c>
@@ -4650,7 +4701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>182</v>
       </c>
@@ -4661,7 +4712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>183</v>
       </c>
@@ -4672,7 +4723,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>184</v>
       </c>
@@ -4683,7 +4734,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>185</v>
       </c>
@@ -4694,7 +4745,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>186</v>
       </c>
@@ -4705,7 +4756,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>187</v>
       </c>
@@ -4716,7 +4767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>188</v>
       </c>
@@ -4727,7 +4778,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>189</v>
       </c>
@@ -4738,7 +4789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>190</v>
       </c>
@@ -4749,7 +4800,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>191</v>
       </c>
@@ -4760,7 +4811,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>192</v>
       </c>
@@ -4771,7 +4822,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>193</v>
       </c>
@@ -4782,7 +4833,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>194</v>
       </c>
@@ -4793,7 +4844,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>195</v>
       </c>
@@ -4804,7 +4855,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>196</v>
       </c>
@@ -4815,7 +4866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>197</v>
       </c>
@@ -4826,7 +4877,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>198</v>
       </c>
@@ -4837,7 +4888,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>199</v>
       </c>
@@ -4848,7 +4899,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>200</v>
       </c>
@@ -4859,7 +4910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>201</v>
       </c>
@@ -4870,7 +4921,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>202</v>
       </c>
@@ -4881,7 +4932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>203</v>
       </c>
@@ -4892,7 +4943,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>204</v>
       </c>
@@ -4903,7 +4954,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>205</v>
       </c>
@@ -4914,7 +4965,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>206</v>
       </c>
@@ -4925,7 +4976,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>207</v>
       </c>
@@ -4936,7 +4987,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>208</v>
       </c>
@@ -4947,7 +4998,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>209</v>
       </c>
@@ -4958,7 +5009,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>210</v>
       </c>
@@ -4969,7 +5020,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>211</v>
       </c>
@@ -4980,7 +5031,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>212</v>
       </c>
@@ -4991,7 +5042,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>213</v>
       </c>
@@ -5002,7 +5053,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>214</v>
       </c>
@@ -5013,7 +5064,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>215</v>
       </c>
@@ -5024,7 +5075,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>216</v>
       </c>
@@ -5035,7 +5086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>217</v>
       </c>
@@ -5046,7 +5097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>218</v>
       </c>
@@ -5057,7 +5108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>219</v>
       </c>
@@ -5068,7 +5119,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>220</v>
       </c>
@@ -5079,7 +5130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -5090,7 +5141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>222</v>
       </c>
@@ -5101,7 +5152,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -5112,7 +5163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>224</v>
       </c>
@@ -5123,7 +5174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -5134,7 +5185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>226</v>
       </c>
@@ -5145,7 +5196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -5156,7 +5207,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>228</v>
       </c>
@@ -5167,7 +5218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -5178,7 +5229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>230</v>
       </c>
@@ -5189,7 +5240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -5200,7 +5251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -5211,7 +5262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>233</v>
       </c>
@@ -5222,7 +5273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -5233,7 +5284,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>235</v>
       </c>
@@ -5244,7 +5295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>236</v>
       </c>
@@ -5255,7 +5306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>237</v>
       </c>
@@ -5266,7 +5317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>238</v>
       </c>
@@ -5277,7 +5328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>239</v>
       </c>
@@ -5288,7 +5339,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -5299,7 +5350,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>241</v>
       </c>
@@ -5310,7 +5361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -5321,7 +5372,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>243</v>
       </c>
@@ -5332,7 +5383,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -5343,7 +5394,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>245</v>
       </c>
@@ -5354,7 +5405,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -5365,7 +5416,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>247</v>
       </c>
@@ -5376,7 +5427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -5387,7 +5438,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>249</v>
       </c>
@@ -5398,7 +5449,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -5409,7 +5460,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>251</v>
       </c>
@@ -5420,7 +5471,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -5431,7 +5482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>253</v>
       </c>
@@ -5442,7 +5493,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -5453,7 +5504,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>255</v>
       </c>
@@ -5464,7 +5515,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -5475,7 +5526,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>257</v>
       </c>
@@ -5486,7 +5537,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -5497,7 +5548,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>259</v>
       </c>
@@ -5508,7 +5559,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -5519,7 +5570,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>261</v>
       </c>
@@ -5530,7 +5581,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -5541,7 +5592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>263</v>
       </c>
@@ -5552,7 +5603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -5563,7 +5614,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>265</v>
       </c>
@@ -5574,7 +5625,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -5585,7 +5636,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>267</v>
       </c>
@@ -5596,7 +5647,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -5607,7 +5658,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>269</v>
       </c>
@@ -5618,7 +5669,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -5629,7 +5680,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>271</v>
       </c>
@@ -5640,7 +5691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>272</v>
       </c>
@@ -5651,7 +5702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>273</v>
       </c>
@@ -5662,7 +5713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -5673,7 +5724,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>275</v>
       </c>
@@ -5684,7 +5735,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -5695,7 +5746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>277</v>
       </c>
@@ -5706,7 +5757,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -5717,7 +5768,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>279</v>
       </c>
@@ -5728,7 +5779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>280</v>
       </c>
@@ -5739,7 +5790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>281</v>
       </c>
@@ -5750,7 +5801,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>282</v>
       </c>
@@ -5761,7 +5812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>283</v>
       </c>
@@ -5772,7 +5823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>284</v>
       </c>
@@ -5783,7 +5834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>285</v>
       </c>
@@ -5794,7 +5845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>286</v>
       </c>
@@ -5805,7 +5856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -5816,7 +5867,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>288</v>
       </c>
@@ -5827,7 +5878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -5838,7 +5889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>290</v>
       </c>
@@ -5849,7 +5900,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -5860,7 +5911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>292</v>
       </c>
@@ -5871,7 +5922,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -5882,7 +5933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>294</v>
       </c>
@@ -5893,7 +5944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>295</v>
       </c>
@@ -5904,7 +5955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>296</v>
       </c>
@@ -5915,7 +5966,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>297</v>
       </c>
@@ -5926,7 +5977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>298</v>
       </c>
@@ -5937,7 +5988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>299</v>
       </c>
@@ -5948,7 +5999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>300</v>
       </c>
@@ -5959,7 +6010,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>301</v>
       </c>
@@ -5970,7 +6021,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>302</v>
       </c>
@@ -5981,7 +6032,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>303</v>
       </c>
@@ -5992,7 +6043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>304</v>
       </c>
@@ -6003,7 +6054,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>305</v>
       </c>
@@ -6014,7 +6065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>306</v>
       </c>
@@ -6025,7 +6076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>307</v>
       </c>
@@ -6036,7 +6087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>308</v>
       </c>
@@ -6047,7 +6098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>309</v>
       </c>
@@ -6058,7 +6109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>310</v>
       </c>
@@ -6069,7 +6120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>311</v>
       </c>
@@ -6080,7 +6131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>312</v>
       </c>
@@ -6091,7 +6142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>313</v>
       </c>
@@ -6102,7 +6153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>314</v>
       </c>
@@ -6113,7 +6164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>315</v>
       </c>
@@ -6124,7 +6175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>316</v>
       </c>
@@ -6135,7 +6186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>317</v>
       </c>
@@ -6146,7 +6197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>318</v>
       </c>
@@ -6157,7 +6208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>319</v>
       </c>
@@ -6168,7 +6219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>320</v>
       </c>
@@ -6179,7 +6230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>321</v>
       </c>
@@ -6190,7 +6241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>322</v>
       </c>
@@ -6201,7 +6252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>323</v>
       </c>
@@ -6212,7 +6263,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>324</v>
       </c>
@@ -6223,7 +6274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>325</v>
       </c>
@@ -6234,7 +6285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>326</v>
       </c>
@@ -6245,7 +6296,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>327</v>
       </c>
@@ -6256,7 +6307,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>328</v>
       </c>
@@ -6267,7 +6318,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>329</v>
       </c>
@@ -6278,7 +6329,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>330</v>
       </c>
@@ -6289,7 +6340,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>331</v>
       </c>
@@ -6300,7 +6351,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>332</v>
       </c>
@@ -6311,7 +6362,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>333</v>
       </c>
@@ -6322,7 +6373,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>334</v>
       </c>
@@ -6333,7 +6384,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>335</v>
       </c>
@@ -6344,7 +6395,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>336</v>
       </c>
@@ -6355,7 +6406,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>337</v>
       </c>
@@ -6366,7 +6417,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>338</v>
       </c>
@@ -6377,7 +6428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>339</v>
       </c>
@@ -6388,7 +6439,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>340</v>
       </c>
@@ -6399,7 +6450,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>341</v>
       </c>
@@ -6410,7 +6461,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>342</v>
       </c>
@@ -6421,7 +6472,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>343</v>
       </c>
@@ -6432,7 +6483,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>344</v>
       </c>
@@ -6443,7 +6494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>345</v>
       </c>
@@ -6454,7 +6505,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>346</v>
       </c>
@@ -6465,7 +6516,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>347</v>
       </c>
@@ -6476,7 +6527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>348</v>
       </c>
@@ -6487,7 +6538,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>349</v>
       </c>
@@ -6498,7 +6549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>350</v>
       </c>
@@ -6509,7 +6560,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>351</v>
       </c>
@@ -6520,7 +6571,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>352</v>
       </c>
@@ -6531,7 +6582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>353</v>
       </c>
@@ -6542,7 +6593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>354</v>
       </c>
@@ -6553,7 +6604,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>355</v>
       </c>
@@ -6564,7 +6615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>356</v>
       </c>
@@ -6575,7 +6626,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>357</v>
       </c>
@@ -6586,7 +6637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>358</v>
       </c>
@@ -6597,7 +6648,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>359</v>
       </c>
@@ -6608,7 +6659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>360</v>
       </c>
@@ -6619,7 +6670,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>361</v>
       </c>
@@ -6630,7 +6681,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>362</v>
       </c>
@@ -6641,7 +6692,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>363</v>
       </c>
@@ -6652,7 +6703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>364</v>
       </c>
@@ -6663,7 +6714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>365</v>
       </c>
@@ -6674,7 +6725,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>366</v>
       </c>
@@ -6685,7 +6736,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>367</v>
       </c>
@@ -6696,7 +6747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>368</v>
       </c>
@@ -6707,7 +6758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>369</v>
       </c>
@@ -6718,7 +6769,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>370</v>
       </c>
@@ -6729,7 +6780,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>371</v>
       </c>
@@ -6740,7 +6791,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>372</v>
       </c>
@@ -6751,7 +6802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>373</v>
       </c>
@@ -6762,7 +6813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>374</v>
       </c>
@@ -6773,7 +6824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>375</v>
       </c>
@@ -6784,7 +6835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>376</v>
       </c>
@@ -6795,7 +6846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>377</v>
       </c>
@@ -6806,7 +6857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>378</v>
       </c>
@@ -6817,7 +6868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>379</v>
       </c>
@@ -6828,7 +6879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>380</v>
       </c>
@@ -6839,7 +6890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>381</v>
       </c>
@@ -6850,7 +6901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>382</v>
       </c>
@@ -6861,7 +6912,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>383</v>
       </c>
@@ -6872,7 +6923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>384</v>
       </c>
@@ -6883,7 +6934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>385</v>
       </c>
@@ -6894,7 +6945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>386</v>
       </c>
@@ -6905,7 +6956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>387</v>
       </c>
@@ -6916,7 +6967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>388</v>
       </c>
@@ -6927,7 +6978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>389</v>
       </c>
@@ -6938,7 +6989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>390</v>
       </c>
@@ -6949,7 +7000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>391</v>
       </c>
@@ -6960,7 +7011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>392</v>
       </c>
@@ -6971,7 +7022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>393</v>
       </c>
@@ -6982,7 +7033,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>394</v>
       </c>
@@ -6993,7 +7044,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>395</v>
       </c>
@@ -7004,7 +7055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>396</v>
       </c>
@@ -7015,7 +7066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>397</v>
       </c>
@@ -7026,7 +7077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>398</v>
       </c>
@@ -7037,7 +7088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>399</v>
       </c>
@@ -7048,7 +7099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>400</v>
       </c>
@@ -7059,7 +7110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>401</v>
       </c>
@@ -7070,7 +7121,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>402</v>
       </c>
@@ -7081,7 +7132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>403</v>
       </c>
@@ -7092,7 +7143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>404</v>
       </c>
@@ -7103,7 +7154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>405</v>
       </c>
@@ -7114,7 +7165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>406</v>
       </c>
@@ -7125,7 +7176,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>407</v>
       </c>
@@ -7136,7 +7187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>408</v>
       </c>
@@ -7147,7 +7198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>409</v>
       </c>
@@ -7158,7 +7209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>410</v>
       </c>
@@ -7169,7 +7220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>411</v>
       </c>
@@ -7180,7 +7231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>412</v>
       </c>
@@ -7191,7 +7242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>413</v>
       </c>
@@ -7202,7 +7253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>414</v>
       </c>
@@ -7213,7 +7264,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>415</v>
       </c>
@@ -7224,7 +7275,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>416</v>
       </c>
@@ -7235,7 +7286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>417</v>
       </c>
@@ -7246,7 +7297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>418</v>
       </c>
@@ -7257,7 +7308,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>419</v>
       </c>
@@ -7268,7 +7319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>420</v>
       </c>
@@ -7279,7 +7330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>421</v>
       </c>
@@ -7290,7 +7341,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>422</v>
       </c>
@@ -7301,7 +7352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>423</v>
       </c>
@@ -7312,7 +7363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>424</v>
       </c>
@@ -7323,7 +7374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>425</v>
       </c>
@@ -7334,7 +7385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>426</v>
       </c>
@@ -7345,7 +7396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>427</v>
       </c>
@@ -7356,7 +7407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>428</v>
       </c>
@@ -7367,7 +7418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>429</v>
       </c>
@@ -7378,7 +7429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>430</v>
       </c>
@@ -7389,7 +7440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>431</v>
       </c>
@@ -7400,7 +7451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>432</v>
       </c>
@@ -7411,7 +7462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>433</v>
       </c>
@@ -7422,7 +7473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>434</v>
       </c>
@@ -7433,7 +7484,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>435</v>
       </c>
@@ -7444,7 +7495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>436</v>
       </c>
@@ -7455,7 +7506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>437</v>
       </c>
@@ -7466,7 +7517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>438</v>
       </c>
@@ -7477,7 +7528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>439</v>
       </c>
@@ -7488,7 +7539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>440</v>
       </c>
@@ -7499,7 +7550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>441</v>
       </c>
@@ -7510,7 +7561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>442</v>
       </c>
@@ -7521,7 +7572,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>443</v>
       </c>
@@ -7532,7 +7583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>444</v>
       </c>
@@ -7543,7 +7594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>445</v>
       </c>
@@ -7554,7 +7605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>446</v>
       </c>
@@ -7565,7 +7616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>447</v>
       </c>
@@ -7576,7 +7627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>448</v>
       </c>
@@ -7587,7 +7638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>449</v>
       </c>
@@ -7598,7 +7649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>450</v>
       </c>
@@ -7609,7 +7660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>451</v>
       </c>
@@ -7620,7 +7671,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>452</v>
       </c>
@@ -7631,7 +7682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>453</v>
       </c>
@@ -7642,7 +7693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>454</v>
       </c>
@@ -7653,7 +7704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>455</v>
       </c>
@@ -7664,7 +7715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>456</v>
       </c>
@@ -7675,7 +7726,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>457</v>
       </c>
@@ -7686,7 +7737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>458</v>
       </c>
@@ -7697,7 +7748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>459</v>
       </c>
@@ -7708,7 +7759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>460</v>
       </c>
@@ -7719,7 +7770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>461</v>
       </c>
@@ -7730,7 +7781,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>462</v>
       </c>
@@ -7741,7 +7792,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>463</v>
       </c>
@@ -7752,7 +7803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>464</v>
       </c>
@@ -7763,7 +7814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>465</v>
       </c>
@@ -7774,7 +7825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>466</v>
       </c>
@@ -7785,7 +7836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>467</v>
       </c>
@@ -7796,7 +7847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>468</v>
       </c>
@@ -7807,7 +7858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>469</v>
       </c>
@@ -7818,7 +7869,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>470</v>
       </c>
@@ -7829,7 +7880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>471</v>
       </c>
@@ -7840,7 +7891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>472</v>
       </c>
@@ -7851,7 +7902,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>473</v>
       </c>
@@ -7862,7 +7913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>474</v>
       </c>
@@ -7873,7 +7924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>475</v>
       </c>
@@ -7884,7 +7935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>476</v>
       </c>
@@ -7895,7 +7946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>477</v>
       </c>
@@ -7906,7 +7957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>478</v>
       </c>
@@ -7917,7 +7968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>479</v>
       </c>
@@ -7928,7 +7979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>480</v>
       </c>
@@ -7939,7 +7990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>481</v>
       </c>
@@ -7950,7 +8001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>482</v>
       </c>
@@ -7961,7 +8012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>483</v>
       </c>
@@ -7972,7 +8023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>484</v>
       </c>
@@ -7983,7 +8034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>485</v>
       </c>
@@ -7994,7 +8045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>486</v>
       </c>
@@ -8005,7 +8056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>487</v>
       </c>
@@ -8016,7 +8067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>488</v>
       </c>
@@ -8027,7 +8078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>489</v>
       </c>
@@ -8038,7 +8089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>490</v>
       </c>
@@ -8049,7 +8100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>491</v>
       </c>
@@ -8060,7 +8111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>492</v>
       </c>
@@ -8071,7 +8122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>493</v>
       </c>
@@ -8082,7 +8133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>494</v>
       </c>
@@ -8093,7 +8144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>495</v>
       </c>
@@ -8104,7 +8155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>496</v>
       </c>
@@ -8115,7 +8166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>497</v>
       </c>
@@ -8126,7 +8177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>498</v>
       </c>
@@ -8137,7 +8188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>499</v>
       </c>
@@ -8148,7 +8199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>500</v>
       </c>
@@ -8159,7 +8210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>501</v>
       </c>
@@ -8170,7 +8221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>502</v>
       </c>
@@ -8181,7 +8232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>503</v>
       </c>
@@ -8192,7 +8243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>504</v>
       </c>
@@ -8203,7 +8254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>505</v>
       </c>
@@ -8214,7 +8265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>506</v>
       </c>
@@ -8225,7 +8276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>507</v>
       </c>
@@ -8236,7 +8287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>508</v>
       </c>
@@ -8247,7 +8298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>509</v>
       </c>
@@ -8258,7 +8309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>510</v>
       </c>
@@ -8269,7 +8320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>511</v>
       </c>
@@ -8280,7 +8331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>512</v>
       </c>
@@ -8291,7 +8342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>513</v>
       </c>
@@ -8302,7 +8353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>514</v>
       </c>
@@ -8313,7 +8364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>515</v>
       </c>
@@ -8324,7 +8375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>516</v>
       </c>
@@ -8335,7 +8386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>517</v>
       </c>
@@ -8346,7 +8397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>518</v>
       </c>
@@ -8357,7 +8408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>519</v>
       </c>
@@ -8368,7 +8419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>520</v>
       </c>
@@ -8379,7 +8430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>521</v>
       </c>
@@ -8390,7 +8441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>522</v>
       </c>
@@ -8401,7 +8452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>523</v>
       </c>
@@ -8412,7 +8463,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>524</v>
       </c>
@@ -8423,7 +8474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>525</v>
       </c>
@@ -8434,7 +8485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>526</v>
       </c>
@@ -8445,7 +8496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>527</v>
       </c>
@@ -8456,7 +8507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>528</v>
       </c>
@@ -8467,7 +8518,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>529</v>
       </c>
@@ -8478,7 +8529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>530</v>
       </c>
@@ -8489,7 +8540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>531</v>
       </c>
@@ -8500,7 +8551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>532</v>
       </c>
@@ -8511,7 +8562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>533</v>
       </c>
@@ -8522,7 +8573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>534</v>
       </c>
@@ -8533,7 +8584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>535</v>
       </c>
@@ -8544,7 +8595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>536</v>
       </c>
@@ -8555,7 +8606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>537</v>
       </c>
@@ -8566,7 +8617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>538</v>
       </c>
@@ -8577,7 +8628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>539</v>
       </c>
@@ -8588,7 +8639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>540</v>
       </c>
@@ -8599,7 +8650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>541</v>
       </c>
@@ -8610,7 +8661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>542</v>
       </c>
@@ -8621,7 +8672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>543</v>
       </c>
@@ -8632,7 +8683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>544</v>
       </c>
@@ -8643,7 +8694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>545</v>
       </c>
@@ -8654,7 +8705,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>546</v>
       </c>
@@ -8665,7 +8716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>547</v>
       </c>
@@ -8676,7 +8727,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>548</v>
       </c>
@@ -8687,7 +8738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>549</v>
       </c>
@@ -8698,7 +8749,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>550</v>
       </c>
@@ -8709,7 +8760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>551</v>
       </c>
@@ -8720,7 +8771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>552</v>
       </c>
@@ -8731,7 +8782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>553</v>
       </c>
@@ -8742,7 +8793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>554</v>
       </c>
@@ -8753,7 +8804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>555</v>
       </c>
@@ -8764,7 +8815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>556</v>
       </c>
@@ -8775,7 +8826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>557</v>
       </c>
@@ -8786,7 +8837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>558</v>
       </c>
@@ -8797,7 +8848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>559</v>
       </c>
@@ -8808,7 +8859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>560</v>
       </c>
@@ -8819,7 +8870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>561</v>
       </c>
@@ -8830,7 +8881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>562</v>
       </c>
@@ -8841,7 +8892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>563</v>
       </c>
@@ -8852,7 +8903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>564</v>
       </c>
@@ -8863,7 +8914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>565</v>
       </c>
@@ -8874,7 +8925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>566</v>
       </c>
@@ -8885,7 +8936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>567</v>
       </c>
@@ -8896,7 +8947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>568</v>
       </c>
@@ -8907,7 +8958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>569</v>
       </c>
@@ -8918,7 +8969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>570</v>
       </c>
@@ -8929,7 +8980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>571</v>
       </c>
@@ -8940,7 +8991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>572</v>
       </c>
@@ -8951,7 +9002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>573</v>
       </c>
@@ -8962,7 +9013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>574</v>
       </c>
@@ -8973,7 +9024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>575</v>
       </c>
@@ -8984,7 +9035,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>576</v>
       </c>
@@ -8995,7 +9046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>577</v>
       </c>
@@ -9006,7 +9057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>578</v>
       </c>
@@ -9017,7 +9068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>579</v>
       </c>
@@ -9028,7 +9079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>580</v>
       </c>
@@ -9039,7 +9090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>581</v>
       </c>
@@ -9050,7 +9101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>582</v>
       </c>
@@ -9061,7 +9112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>583</v>
       </c>
@@ -9072,7 +9123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>584</v>
       </c>
@@ -9083,7 +9134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>585</v>
       </c>
@@ -9094,7 +9145,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>586</v>
       </c>
@@ -9105,7 +9156,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>587</v>
       </c>
@@ -9116,7 +9167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>588</v>
       </c>
@@ -9127,7 +9178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>589</v>
       </c>
@@ -9138,7 +9189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>590</v>
       </c>
@@ -9149,7 +9200,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>591</v>
       </c>
@@ -9160,7 +9211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>592</v>
       </c>
@@ -9171,7 +9222,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>593</v>
       </c>
@@ -9182,7 +9233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>594</v>
       </c>
@@ -9193,7 +9244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>595</v>
       </c>
@@ -9204,7 +9255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>596</v>
       </c>
@@ -9215,7 +9266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>597</v>
       </c>
@@ -9226,7 +9277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>598</v>
       </c>
@@ -9237,7 +9288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>599</v>
       </c>
@@ -9248,7 +9299,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>600</v>
       </c>
@@ -9259,7 +9310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>601</v>
       </c>
@@ -9270,7 +9321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>602</v>
       </c>
@@ -9281,7 +9332,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>603</v>
       </c>
@@ -9292,7 +9343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>604</v>
       </c>
@@ -9303,7 +9354,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>605</v>
       </c>
@@ -9314,7 +9365,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>606</v>
       </c>
@@ -9325,7 +9376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>607</v>
       </c>
@@ -9336,7 +9387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>608</v>
       </c>
@@ -9347,7 +9398,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>609</v>
       </c>
@@ -9358,7 +9409,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>610</v>
       </c>
@@ -9369,7 +9420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>611</v>
       </c>
@@ -9380,7 +9431,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>612</v>
       </c>
@@ -9391,7 +9442,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>613</v>
       </c>
@@ -9402,7 +9453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>614</v>
       </c>
@@ -9413,7 +9464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>615</v>
       </c>
@@ -9424,7 +9475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>616</v>
       </c>
@@ -9435,7 +9486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>617</v>
       </c>
@@ -9446,7 +9497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>618</v>
       </c>
@@ -9457,7 +9508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>619</v>
       </c>
@@ -9468,7 +9519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>620</v>
       </c>
@@ -9479,7 +9530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>621</v>
       </c>
@@ -9490,7 +9541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>622</v>
       </c>
@@ -9501,7 +9552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>623</v>
       </c>
@@ -9512,7 +9563,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>624</v>
       </c>
@@ -9523,7 +9574,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>625</v>
       </c>
@@ -9534,7 +9585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>626</v>
       </c>
@@ -9545,7 +9596,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>627</v>
       </c>
@@ -9556,7 +9607,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>628</v>
       </c>
@@ -9567,7 +9618,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>629</v>
       </c>
@@ -9578,7 +9629,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>630</v>
       </c>
@@ -9589,7 +9640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>631</v>
       </c>
@@ -9600,7 +9651,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>632</v>
       </c>
@@ -9611,7 +9662,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>633</v>
       </c>
@@ -9622,7 +9673,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>634</v>
       </c>
@@ -9633,7 +9684,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>635</v>
       </c>
@@ -9644,7 +9695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>636</v>
       </c>
@@ -9655,7 +9706,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>637</v>
       </c>
@@ -9666,7 +9717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>638</v>
       </c>
@@ -9677,7 +9728,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>639</v>
       </c>
@@ -9688,7 +9739,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>640</v>
       </c>
@@ -9699,7 +9750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>641</v>
       </c>
@@ -9710,7 +9761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>642</v>
       </c>
@@ -9721,7 +9772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>643</v>
       </c>
@@ -9732,7 +9783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>644</v>
       </c>
@@ -9743,7 +9794,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>645</v>
       </c>
@@ -9754,7 +9805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>646</v>
       </c>
@@ -9765,7 +9816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>647</v>
       </c>
@@ -9776,7 +9827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>648</v>
       </c>
@@ -9787,7 +9838,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>649</v>
       </c>
@@ -9798,7 +9849,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>650</v>
       </c>
@@ -9809,7 +9860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>651</v>
       </c>
@@ -9820,7 +9871,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>652</v>
       </c>
@@ -9831,7 +9882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>653</v>
       </c>
@@ -9842,7 +9893,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>654</v>
       </c>
@@ -9853,7 +9904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>655</v>
       </c>
@@ -9864,7 +9915,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>656</v>
       </c>
@@ -9875,7 +9926,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>657</v>
       </c>
@@ -9886,7 +9937,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>658</v>
       </c>
@@ -9897,7 +9948,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>659</v>
       </c>
@@ -9908,7 +9959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>660</v>
       </c>
@@ -9919,7 +9970,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>661</v>
       </c>
@@ -9930,7 +9981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>662</v>
       </c>
@@ -9941,7 +9992,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>663</v>
       </c>
@@ -9952,7 +10003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>664</v>
       </c>
@@ -9963,7 +10014,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>665</v>
       </c>
@@ -9974,7 +10025,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>666</v>
       </c>
@@ -9985,7 +10036,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>667</v>
       </c>
@@ -9996,7 +10047,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>668</v>
       </c>
@@ -10007,7 +10058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>669</v>
       </c>
@@ -10018,7 +10069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>670</v>
       </c>
@@ -10029,7 +10080,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>671</v>
       </c>
@@ -10040,7 +10091,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>672</v>
       </c>
@@ -10051,7 +10102,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>673</v>
       </c>
@@ -10062,7 +10113,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>674</v>
       </c>
@@ -10073,7 +10124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>675</v>
       </c>
@@ -10084,7 +10135,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>676</v>
       </c>
@@ -10095,7 +10146,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>677</v>
       </c>
@@ -10106,7 +10157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>678</v>
       </c>
@@ -10117,7 +10168,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>679</v>
       </c>
@@ -10128,7 +10179,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>680</v>
       </c>
@@ -10139,7 +10190,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>681</v>
       </c>
@@ -10150,7 +10201,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>682</v>
       </c>
@@ -10161,7 +10212,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>683</v>
       </c>
@@ -10172,7 +10223,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>684</v>
       </c>
@@ -10183,7 +10234,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>685</v>
       </c>
@@ -10194,7 +10245,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>686</v>
       </c>
@@ -10205,7 +10256,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>687</v>
       </c>
@@ -10216,7 +10267,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>688</v>
       </c>
@@ -10227,7 +10278,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>689</v>
       </c>
@@ -10238,7 +10289,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>690</v>
       </c>
@@ -10249,7 +10300,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>691</v>
       </c>
@@ -10260,7 +10311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>692</v>
       </c>
@@ -10271,7 +10322,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>693</v>
       </c>
@@ -10282,7 +10333,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>694</v>
       </c>
@@ -10293,7 +10344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>695</v>
       </c>
@@ -10304,7 +10355,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>696</v>
       </c>
@@ -10315,7 +10366,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>697</v>
       </c>
@@ -10326,7 +10377,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>698</v>
       </c>
@@ -10337,7 +10388,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>699</v>
       </c>
@@ -10348,7 +10399,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>700</v>
       </c>
@@ -10359,7 +10410,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>701</v>
       </c>
@@ -10370,7 +10421,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>702</v>
       </c>
@@ -10381,7 +10432,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>703</v>
       </c>
@@ -10392,7 +10443,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>704</v>
       </c>
@@ -10403,7 +10454,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>705</v>
       </c>
@@ -10414,7 +10465,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>706</v>
       </c>
@@ -10425,7 +10476,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>707</v>
       </c>
@@ -10436,7 +10487,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>708</v>
       </c>
@@ -10447,7 +10498,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>709</v>
       </c>
@@ -10458,7 +10509,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>710</v>
       </c>
@@ -10469,7 +10520,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>711</v>
       </c>
@@ -10480,7 +10531,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>712</v>
       </c>
@@ -10491,7 +10542,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>713</v>
       </c>
@@ -10502,7 +10553,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>714</v>
       </c>
@@ -10513,7 +10564,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>715</v>
       </c>
@@ -10524,7 +10575,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>716</v>
       </c>
@@ -10535,7 +10586,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>717</v>
       </c>
@@ -10546,7 +10597,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>718</v>
       </c>
@@ -10557,7 +10608,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>719</v>
       </c>
@@ -10568,7 +10619,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>720</v>
       </c>
@@ -10579,7 +10630,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>721</v>
       </c>
@@ -10590,7 +10641,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>722</v>
       </c>
@@ -10601,7 +10652,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>723</v>
       </c>
@@ -10612,7 +10663,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>724</v>
       </c>
@@ -10623,7 +10674,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>725</v>
       </c>
@@ -10634,7 +10685,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>726</v>
       </c>
@@ -10645,7 +10696,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>727</v>
       </c>
@@ -10656,7 +10707,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>728</v>
       </c>
@@ -10667,7 +10718,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>729</v>
       </c>
@@ -10678,7 +10729,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>730</v>
       </c>
@@ -10689,7 +10740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>731</v>
       </c>
@@ -10700,7 +10751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>732</v>
       </c>
@@ -10711,7 +10762,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>733</v>
       </c>
@@ -10722,7 +10773,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>734</v>
       </c>
@@ -10733,7 +10784,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>735</v>
       </c>
@@ -10744,7 +10795,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>736</v>
       </c>
@@ -10755,7 +10806,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>737</v>
       </c>
@@ -10766,7 +10817,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>738</v>
       </c>
@@ -10777,7 +10828,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>739</v>
       </c>
@@ -10788,7 +10839,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>740</v>
       </c>
@@ -10799,7 +10850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>741</v>
       </c>
@@ -10810,7 +10861,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>742</v>
       </c>
